--- a/JourneyofLords/Assets/Scripts/GameData/StageEXP.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/StageEXP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07088AF-D461-41A7-A860-BEACD5EA1171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA344E64-E478-4D86-ADDC-850BB4F76D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroData" sheetId="1" r:id="rId1"/>
@@ -375,9 +375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -503,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:M22" si="6">L3+5</f>
+        <f t="shared" ref="L4:L22" si="6">L3+5</f>
         <v>15</v>
       </c>
       <c r="M4">
